--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.53304966666667</v>
+        <v>9.157027000000001</v>
       </c>
       <c r="H2">
-        <v>46.599149</v>
+        <v>27.471081</v>
       </c>
       <c r="I2">
-        <v>0.5918754867343929</v>
+        <v>0.2850178595517555</v>
       </c>
       <c r="J2">
-        <v>0.5918754867343928</v>
+        <v>0.2856732287672499</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.0507755</v>
+        <v>51.1891975</v>
       </c>
       <c r="N2">
-        <v>140.101551</v>
+        <v>102.378395</v>
       </c>
       <c r="O2">
-        <v>0.485408695871283</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="P2">
-        <v>0.4148906539949664</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="Q2">
-        <v>1088.102175030016</v>
+        <v>468.7408636158326</v>
       </c>
       <c r="R2">
-        <v>6528.613050180099</v>
+        <v>2812.445181694995</v>
       </c>
       <c r="S2">
-        <v>0.2873015081339225</v>
+        <v>0.1912850677303778</v>
       </c>
       <c r="T2">
-        <v>0.2455636077748213</v>
+        <v>0.1879173316210868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.53304966666667</v>
+        <v>9.157027000000001</v>
       </c>
       <c r="H3">
-        <v>46.599149</v>
+        <v>27.471081</v>
       </c>
       <c r="I3">
-        <v>0.5918754867343929</v>
+        <v>0.2850178595517555</v>
       </c>
       <c r="J3">
-        <v>0.5918754867343928</v>
+        <v>0.2856732287672499</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.7450486666666668</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="N3">
         <v>2.235146</v>
       </c>
       <c r="O3">
-        <v>0.00516272802215166</v>
+        <v>0.009768217375060863</v>
       </c>
       <c r="P3">
-        <v>0.006619064379338908</v>
+        <v>0.01436133700004327</v>
       </c>
       <c r="Q3">
-        <v>11.57287794341711</v>
+        <v>6.822430756980666</v>
       </c>
       <c r="R3">
-        <v>104.155901490754</v>
+        <v>61.401876812826</v>
       </c>
       <c r="S3">
-        <v>0.003055692160988303</v>
+        <v>0.002784116407876115</v>
       </c>
       <c r="T3">
-        <v>0.003917661951247498</v>
+        <v>0.004102649510216933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.53304966666667</v>
+        <v>9.157027000000001</v>
       </c>
       <c r="H4">
-        <v>46.599149</v>
+        <v>27.471081</v>
       </c>
       <c r="I4">
-        <v>0.5918754867343929</v>
+        <v>0.2850178595517555</v>
       </c>
       <c r="J4">
-        <v>0.5918754867343928</v>
+        <v>0.2856732287672499</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8712870000000001</v>
+        <v>0.1585153333333333</v>
       </c>
       <c r="N4">
-        <v>2.613861</v>
+        <v>0.475546</v>
       </c>
       <c r="O4">
-        <v>0.006037481860562737</v>
+        <v>0.002078269920551362</v>
       </c>
       <c r="P4">
-        <v>0.007740574547543282</v>
+        <v>0.003055494524752558</v>
       </c>
       <c r="Q4">
-        <v>13.533744244921</v>
+        <v>1.451529187247333</v>
       </c>
       <c r="R4">
-        <v>121.803698204289</v>
+        <v>13.063762685226</v>
       </c>
       <c r="S4">
-        <v>0.003573437514870638</v>
+        <v>0.0005923440443263461</v>
       </c>
       <c r="T4">
-        <v>0.004581456327931033</v>
+        <v>0.0008728729863667168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.53304966666667</v>
+        <v>9.157027000000001</v>
       </c>
       <c r="H5">
-        <v>46.599149</v>
+        <v>27.471081</v>
       </c>
       <c r="I5">
-        <v>0.5918754867343929</v>
+        <v>0.2850178595517555</v>
       </c>
       <c r="J5">
-        <v>0.5918754867343928</v>
+        <v>0.2856732287672499</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.205092</v>
+        <v>21.992666</v>
       </c>
       <c r="N5">
-        <v>50.410184</v>
+        <v>43.985332</v>
       </c>
       <c r="O5">
-        <v>0.17465575148466</v>
+        <v>0.2883424288325376</v>
       </c>
       <c r="P5">
-        <v>0.1492825315528919</v>
+        <v>0.2826160688880223</v>
       </c>
       <c r="Q5">
-        <v>391.5119458889026</v>
+        <v>201.387436363982</v>
       </c>
       <c r="R5">
-        <v>2349.071675333416</v>
+        <v>1208.324618183892</v>
       </c>
       <c r="S5">
-        <v>0.1033744579209443</v>
+        <v>0.08218274188380424</v>
       </c>
       <c r="T5">
-        <v>0.08835667102381024</v>
+        <v>0.08073584490074885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.53304966666667</v>
+        <v>9.157027000000001</v>
       </c>
       <c r="H6">
-        <v>46.599149</v>
+        <v>27.471081</v>
       </c>
       <c r="I6">
-        <v>0.5918754867343929</v>
+        <v>0.2850178595517555</v>
       </c>
       <c r="J6">
-        <v>0.5918754867343928</v>
+        <v>0.2856732287672499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.38387733333334</v>
+        <v>2.187308666666667</v>
       </c>
       <c r="N6">
-        <v>139.151632</v>
+        <v>6.561926000000001</v>
       </c>
       <c r="O6">
-        <v>0.321411679529899</v>
+        <v>0.02867746427618762</v>
       </c>
       <c r="P6">
-        <v>0.4120776050862342</v>
+        <v>0.04216191275887391</v>
       </c>
       <c r="Q6">
-        <v>720.4830703512409</v>
+        <v>20.02924451800067</v>
       </c>
       <c r="R6">
-        <v>6484.347633161168</v>
+        <v>180.263200662006</v>
       </c>
       <c r="S6">
-        <v>0.1902356942638777</v>
+        <v>0.008173589485370928</v>
       </c>
       <c r="T6">
-        <v>0.2438986330827578</v>
+        <v>0.01204452974883062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>15.53304966666667</v>
+        <v>0.221116</v>
       </c>
       <c r="H7">
-        <v>46.599149</v>
+        <v>0.442232</v>
       </c>
       <c r="I7">
-        <v>0.5918754867343929</v>
+        <v>0.006882365753933669</v>
       </c>
       <c r="J7">
-        <v>0.5918754867343928</v>
+        <v>0.004598794030136581</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.056899666666667</v>
+        <v>51.1891975</v>
       </c>
       <c r="N7">
-        <v>3.170699</v>
+        <v>102.378395</v>
       </c>
       <c r="O7">
-        <v>0.007323663231443602</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="P7">
-        <v>0.009389570439025233</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="Q7">
-        <v>16.41687501501677</v>
+        <v>11.31875059441</v>
       </c>
       <c r="R7">
-        <v>147.751875135151</v>
+        <v>45.27500237764</v>
       </c>
       <c r="S7">
-        <v>0.00433469673978946</v>
+        <v>0.004618987039818733</v>
       </c>
       <c r="T7">
-        <v>0.005557456573824926</v>
+        <v>0.003025110566178902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>10.71072966666667</v>
+        <v>0.221116</v>
       </c>
       <c r="H8">
-        <v>32.132189</v>
+        <v>0.442232</v>
       </c>
       <c r="I8">
-        <v>0.4081245132656072</v>
+        <v>0.006882365753933669</v>
       </c>
       <c r="J8">
-        <v>0.4081245132656071</v>
+        <v>0.004598794030136581</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>70.0507755</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="N8">
-        <v>140.101551</v>
+        <v>2.235146</v>
       </c>
       <c r="O8">
-        <v>0.485408695871283</v>
+        <v>0.009768217375060863</v>
       </c>
       <c r="P8">
-        <v>0.4148906539949664</v>
+        <v>0.01436133700004327</v>
       </c>
       <c r="Q8">
-        <v>750.2949193208565</v>
+        <v>0.1647421809786667</v>
       </c>
       <c r="R8">
-        <v>4501.769515925139</v>
+        <v>0.988453085872</v>
       </c>
       <c r="S8">
-        <v>0.1981071877373605</v>
+        <v>6.722844473909873E-05</v>
       </c>
       <c r="T8">
-        <v>0.1693270462201451</v>
+        <v>6.60448308605786E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>10.71072966666667</v>
+        <v>0.221116</v>
       </c>
       <c r="H9">
-        <v>32.132189</v>
+        <v>0.442232</v>
       </c>
       <c r="I9">
-        <v>0.4081245132656072</v>
+        <v>0.006882365753933669</v>
       </c>
       <c r="J9">
-        <v>0.4081245132656071</v>
+        <v>0.004598794030136581</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7450486666666668</v>
+        <v>0.1585153333333333</v>
       </c>
       <c r="N9">
-        <v>2.235146</v>
+        <v>0.475546</v>
       </c>
       <c r="O9">
-        <v>0.00516272802215166</v>
+        <v>0.002078269920551362</v>
       </c>
       <c r="P9">
-        <v>0.006619064379338908</v>
+        <v>0.003055494524752558</v>
       </c>
       <c r="Q9">
-        <v>7.980014857177112</v>
+        <v>0.03505027644533334</v>
       </c>
       <c r="R9">
-        <v>71.82013371459401</v>
+        <v>0.210301658672</v>
       </c>
       <c r="S9">
-        <v>0.002107035861163357</v>
+        <v>1.430341372863314E-05</v>
       </c>
       <c r="T9">
-        <v>0.002701402428091409</v>
+        <v>1.405158997954707E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>10.71072966666667</v>
+        <v>0.221116</v>
       </c>
       <c r="H10">
-        <v>32.132189</v>
+        <v>0.442232</v>
       </c>
       <c r="I10">
-        <v>0.4081245132656072</v>
+        <v>0.006882365753933669</v>
       </c>
       <c r="J10">
-        <v>0.4081245132656071</v>
+        <v>0.004598794030136581</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8712870000000001</v>
+        <v>21.992666</v>
       </c>
       <c r="N10">
-        <v>2.613861</v>
+        <v>43.985332</v>
       </c>
       <c r="O10">
-        <v>0.006037481860562737</v>
+        <v>0.2883424288325376</v>
       </c>
       <c r="P10">
-        <v>0.007740574547543282</v>
+        <v>0.2826160688880223</v>
       </c>
       <c r="Q10">
-        <v>9.332119519081001</v>
+        <v>4.862930335256</v>
       </c>
       <c r="R10">
-        <v>83.98907567172901</v>
+        <v>19.451721341024</v>
       </c>
       <c r="S10">
-        <v>0.002464044345692099</v>
+        <v>0.001984478057603113</v>
       </c>
       <c r="T10">
-        <v>0.003159118219612249</v>
+        <v>0.001299693090422906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,75 +1086,75 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>10.71072966666667</v>
+        <v>0.221116</v>
       </c>
       <c r="H11">
-        <v>32.132189</v>
+        <v>0.442232</v>
       </c>
       <c r="I11">
-        <v>0.4081245132656072</v>
+        <v>0.006882365753933669</v>
       </c>
       <c r="J11">
-        <v>0.4081245132656071</v>
+        <v>0.004598794030136581</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.205092</v>
+        <v>2.187308666666667</v>
       </c>
       <c r="N11">
-        <v>50.410184</v>
+        <v>6.561926000000001</v>
       </c>
       <c r="O11">
-        <v>0.17465575148466</v>
+        <v>0.02867746427618762</v>
       </c>
       <c r="P11">
-        <v>0.1492825315528919</v>
+        <v>0.04216191275887391</v>
       </c>
       <c r="Q11">
-        <v>269.9649266354626</v>
+        <v>0.4836489431386667</v>
       </c>
       <c r="R11">
-        <v>1619.789559812776</v>
+        <v>2.901893658832</v>
       </c>
       <c r="S11">
-        <v>0.07128129356371569</v>
+        <v>0.0001973687980440899</v>
       </c>
       <c r="T11">
-        <v>0.06092586052908164</v>
+        <v>0.0001938939526946487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,108 +1163,604 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.71072966666667</v>
+        <v>6.660925</v>
       </c>
       <c r="H12">
-        <v>32.132189</v>
+        <v>19.982775</v>
       </c>
       <c r="I12">
-        <v>0.4081245132656072</v>
+        <v>0.2073252144101767</v>
       </c>
       <c r="J12">
-        <v>0.4081245132656071</v>
+        <v>0.2078019373893398</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.38387733333334</v>
+        <v>51.1891975</v>
       </c>
       <c r="N12">
-        <v>139.151632</v>
+        <v>102.378395</v>
       </c>
       <c r="O12">
-        <v>0.321411679529899</v>
+        <v>0.6711336195956624</v>
       </c>
       <c r="P12">
-        <v>0.4120776050862342</v>
+        <v>0.6578051868283081</v>
       </c>
       <c r="Q12">
-        <v>496.8051710091609</v>
+        <v>340.9674053576875</v>
       </c>
       <c r="R12">
-        <v>4471.246539082448</v>
+        <v>2045.804432146125</v>
       </c>
       <c r="S12">
-        <v>0.1311759852660213</v>
+        <v>0.1391429215805486</v>
       </c>
       <c r="T12">
-        <v>0.1681789720034764</v>
+        <v>0.136693192247679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.660925</v>
+      </c>
+      <c r="H13">
+        <v>19.982775</v>
+      </c>
+      <c r="I13">
+        <v>0.2073252144101767</v>
+      </c>
+      <c r="J13">
+        <v>0.2078019373893398</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.7450486666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.235146</v>
+      </c>
+      <c r="O13">
+        <v>0.009768217375060863</v>
+      </c>
+      <c r="P13">
+        <v>0.01436133700004327</v>
+      </c>
+      <c r="Q13">
+        <v>4.962713290016666</v>
+      </c>
+      <c r="R13">
+        <v>44.66441961015</v>
+      </c>
+      <c r="S13">
+        <v>0.002025197761689706</v>
+      </c>
+      <c r="T13">
+        <v>0.002984313652110201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.660925</v>
+      </c>
+      <c r="H14">
+        <v>19.982775</v>
+      </c>
+      <c r="I14">
+        <v>0.2073252144101767</v>
+      </c>
+      <c r="J14">
+        <v>0.2078019373893398</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1585153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.475546</v>
+      </c>
+      <c r="O14">
+        <v>0.002078269920551362</v>
+      </c>
+      <c r="P14">
+        <v>0.003055494524752558</v>
+      </c>
+      <c r="Q14">
+        <v>1.055858746683333</v>
+      </c>
+      <c r="R14">
+        <v>9.502728720150001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004308777568805319</v>
+      </c>
+      <c r="T14">
+        <v>0.0006349376819261014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.660925</v>
+      </c>
+      <c r="H15">
+        <v>19.982775</v>
+      </c>
+      <c r="I15">
+        <v>0.2073252144101767</v>
+      </c>
+      <c r="J15">
+        <v>0.2078019373893398</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.992666</v>
+      </c>
+      <c r="N15">
+        <v>43.985332</v>
+      </c>
+      <c r="O15">
+        <v>0.2883424288325376</v>
+      </c>
+      <c r="P15">
+        <v>0.2826160688880223</v>
+      </c>
+      <c r="Q15">
+        <v>146.49149877605</v>
+      </c>
+      <c r="R15">
+        <v>878.9489926563</v>
+      </c>
+      <c r="S15">
+        <v>0.05978065588125696</v>
+      </c>
+      <c r="T15">
+        <v>0.05872816665229015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.660925</v>
+      </c>
+      <c r="H16">
+        <v>19.982775</v>
+      </c>
+      <c r="I16">
+        <v>0.2073252144101767</v>
+      </c>
+      <c r="J16">
+        <v>0.2078019373893398</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.187308666666667</v>
+      </c>
+      <c r="N16">
+        <v>6.561926000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02867746427618762</v>
+      </c>
+      <c r="P16">
+        <v>0.04216191275887391</v>
+      </c>
+      <c r="Q16">
+        <v>14.56949898051667</v>
+      </c>
+      <c r="R16">
+        <v>131.12549082465</v>
+      </c>
+      <c r="S16">
+        <v>0.00594556142980078</v>
+      </c>
+      <c r="T16">
+        <v>0.008761327155334323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.088838</v>
+      </c>
+      <c r="H17">
+        <v>48.266514</v>
+      </c>
+      <c r="I17">
+        <v>0.5007745602841344</v>
+      </c>
+      <c r="J17">
+        <v>0.5019260398132738</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>51.1891975</v>
+      </c>
+      <c r="N17">
+        <v>102.378395</v>
+      </c>
+      <c r="O17">
+        <v>0.6711336195956624</v>
+      </c>
+      <c r="P17">
+        <v>0.6578051868283081</v>
+      </c>
+      <c r="Q17">
+        <v>823.574705927505</v>
+      </c>
+      <c r="R17">
+        <v>4941.44823556503</v>
+      </c>
+      <c r="S17">
+        <v>0.3360866432449173</v>
+      </c>
+      <c r="T17">
+        <v>0.3301695523933634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>16.088838</v>
+      </c>
+      <c r="H18">
+        <v>48.266514</v>
+      </c>
+      <c r="I18">
+        <v>0.5007745602841344</v>
+      </c>
+      <c r="J18">
+        <v>0.5019260398132738</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.7450486666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.235146</v>
+      </c>
+      <c r="O18">
+        <v>0.009768217375060863</v>
+      </c>
+      <c r="P18">
+        <v>0.01436133700004327</v>
+      </c>
+      <c r="Q18">
+        <v>11.986967300116</v>
+      </c>
+      <c r="R18">
+        <v>107.882705701044</v>
+      </c>
+      <c r="S18">
+        <v>0.004891674760755945</v>
+      </c>
+      <c r="T18">
+        <v>0.007208329006855562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.088838</v>
+      </c>
+      <c r="H19">
+        <v>48.266514</v>
+      </c>
+      <c r="I19">
+        <v>0.5007745602841344</v>
+      </c>
+      <c r="J19">
+        <v>0.5019260398132738</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1585153333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.475546</v>
+      </c>
+      <c r="O19">
+        <v>0.002078269920551362</v>
+      </c>
+      <c r="P19">
+        <v>0.003055494524752558</v>
+      </c>
+      <c r="Q19">
+        <v>2.550327518516</v>
+      </c>
+      <c r="R19">
+        <v>22.952947666644</v>
+      </c>
+      <c r="S19">
+        <v>0.001040744705615851</v>
+      </c>
+      <c r="T19">
+        <v>0.001533632266480192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.71072966666667</v>
-      </c>
-      <c r="H13">
-        <v>32.132189</v>
-      </c>
-      <c r="I13">
-        <v>0.4081245132656072</v>
-      </c>
-      <c r="J13">
-        <v>0.4081245132656071</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.056899666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.170699</v>
-      </c>
-      <c r="O13">
-        <v>0.007323663231443602</v>
-      </c>
-      <c r="P13">
-        <v>0.009389570439025233</v>
-      </c>
-      <c r="Q13">
-        <v>11.32016661445678</v>
-      </c>
-      <c r="R13">
-        <v>101.881499530111</v>
-      </c>
-      <c r="S13">
-        <v>0.002988966491654144</v>
-      </c>
-      <c r="T13">
-        <v>0.003832113865200306</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16.088838</v>
+      </c>
+      <c r="H20">
+        <v>48.266514</v>
+      </c>
+      <c r="I20">
+        <v>0.5007745602841344</v>
+      </c>
+      <c r="J20">
+        <v>0.5019260398132738</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.992666</v>
+      </c>
+      <c r="N20">
+        <v>43.985332</v>
+      </c>
+      <c r="O20">
+        <v>0.2883424288325376</v>
+      </c>
+      <c r="P20">
+        <v>0.2826160688880223</v>
+      </c>
+      <c r="Q20">
+        <v>353.836440462108</v>
+      </c>
+      <c r="R20">
+        <v>2123.018642772648</v>
+      </c>
+      <c r="S20">
+        <v>0.1443945530098733</v>
+      </c>
+      <c r="T20">
+        <v>0.1418523642445604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16.088838</v>
+      </c>
+      <c r="H21">
+        <v>48.266514</v>
+      </c>
+      <c r="I21">
+        <v>0.5007745602841344</v>
+      </c>
+      <c r="J21">
+        <v>0.5019260398132738</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.187308666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.561926000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02867746427618762</v>
+      </c>
+      <c r="P21">
+        <v>0.04216191275887391</v>
+      </c>
+      <c r="Q21">
+        <v>35.191254793996</v>
+      </c>
+      <c r="R21">
+        <v>316.721293145964</v>
+      </c>
+      <c r="S21">
+        <v>0.01436094456297183</v>
+      </c>
+      <c r="T21">
+        <v>0.02116216190201432</v>
       </c>
     </row>
   </sheetData>
